--- a/src/main/resources/config.xlsx
+++ b/src/main/resources/config.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\VM-Java-Country-App-MySQL-Rest-Assured-Solution-main\VM-Java-Country-App-MySQL-Rest-Assured-Solution-main\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\testu\Downloads\Rest Assured Solution Excel\Rest Assured Solution Excel\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75A1BCE-942F-4D57-8359-336A87B95511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907CA037-6C2B-4A9F-824A-7C8897C04967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B1958625-4DE1-E940-957A-F4129650B306}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{B1958625-4DE1-E940-957A-F4129650B306}"/>
   </bookViews>
   <sheets>
-    <sheet name="PostData" sheetId="2" r:id="rId1"/>
+    <sheet name="AddAppointmentData" sheetId="2" r:id="rId1"/>
+    <sheet name="ExpectedProfileDetails" sheetId="7" r:id="rId2"/>
+    <sheet name="EditDepartmentData" sheetId="8" r:id="rId3"/>
+    <sheet name="AddCurrency" sheetId="3" r:id="rId4"/>
+    <sheet name="MatchingPatient" sheetId="4" r:id="rId5"/>
+    <sheet name="CreateAppointmentData" sheetId="5" r:id="rId6"/>
+    <sheet name="ClashAppointmentData" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="77">
   <si>
     <t>FirstName</t>
   </si>
@@ -85,16 +91,202 @@
   </si>
   <si>
     <t>2024-11-12T00:00:00</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Canadian Dollar</t>
+  </si>
+  <si>
+    <t>CreatedBy</t>
+  </si>
+  <si>
+    <t>IsActive</t>
+  </si>
+  <si>
+    <t>FirstNov5</t>
+  </si>
+  <si>
+    <t>LastNov5</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>28Y</t>
+  </si>
+  <si>
+    <t>IsInsurance</t>
+  </si>
+  <si>
+    <t>IMISCode</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>requestDate</t>
+  </si>
+  <si>
+    <t>performerId</t>
+  </si>
+  <si>
+    <t>patientId</t>
+  </si>
+  <si>
+    <t>counterId</t>
+  </si>
+  <si>
+    <t>counterName</t>
+  </si>
+  <si>
+    <t>Morning Counter</t>
+  </si>
+  <si>
+    <t>CounterName</t>
+  </si>
+  <si>
+    <t>CounterId</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>EmployeeId</t>
+  </si>
+  <si>
+    <t>Salutation</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>DateOfBirth</t>
+  </si>
+  <si>
+    <t>2020-01-03T13:47:50.993</t>
+  </si>
+  <si>
+    <t>DateOfJoining</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>not assigned</t>
+  </si>
+  <si>
+    <t>ImageFullPath</t>
+  </si>
+  <si>
+    <t>ImageName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>admin@local.com</t>
+  </si>
+  <si>
+    <t>ContactAddress</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>DepartmentCode</t>
+  </si>
+  <si>
+    <t>DepartmentName</t>
+  </si>
+  <si>
+    <t>NoticeText</t>
+  </si>
+  <si>
+    <t>DepartmentHead</t>
+  </si>
+  <si>
+    <t>IsAppointmentApplicable</t>
+  </si>
+  <si>
+    <t>ModifiedBy</t>
+  </si>
+  <si>
+    <t>CreatedOn</t>
+  </si>
+  <si>
+    <t>ModifiedOn</t>
+  </si>
+  <si>
+    <t>ParentDepartmentId</t>
+  </si>
+  <si>
+    <t>ParentDepartmentName</t>
+  </si>
+  <si>
+    <t>RoomNumber</t>
+  </si>
+  <si>
+    <t>ServiceItemsList</t>
+  </si>
+  <si>
+    <t>IsZeroPriceAllowed</t>
+  </si>
+  <si>
+    <t>OpdNewPatientServiceItemId</t>
+  </si>
+  <si>
+    <t>OpdOldPatientServiceItemId</t>
+  </si>
+  <si>
+    <t>FollowupServiceItemId</t>
+  </si>
+  <si>
+    <t>ABCDE</t>
+  </si>
+  <si>
+    <t>Account Updated Again</t>
+  </si>
+  <si>
+    <t> true</t>
+  </si>
+  <si>
+    <t> false</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1D1C1D"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -120,9 +312,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,97 +663,772 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E4B45C-4FBB-8740-89FA-44F8725467A7}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.296875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.8984375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E859994-D425-4C9D-9393-B824CC6353F4}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="15.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11E35DA-4745-49C0-AE10-29AE2DB945D0}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="7">
+        <v>43832.520833333336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13241F86-C7E9-469A-B8F3-B7E1824B7BF8}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="14.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20681DFD-A94B-43D2-8466-56A2784C59A6}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8601759B-DD6E-4726-AFB6-16E1B53DD414}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="18.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.26953125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.90625" style="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="2">
+        <v>1234561234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+      <c r="B7" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
+      <c r="B10" s="2">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAE2187-F34D-4031-8448-A36536C10D34}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1234561234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="4">
+        <v>45600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
